--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBaseRate.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBaseRate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8691B9C-1E48-4D22-8DBB-D2413C2CCF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E743251-37E0-4F9A-B461-97F506BC2F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -223,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BaseRateCode asc,EffectDate desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CdBaseRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,6 +297,10 @@
   <si>
     <t>共用代碼檔
 TWD:新台幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseRateCode asc,EffectDate asc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -922,7 +922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -945,7 +945,7 @@
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>14</v>
@@ -1066,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -1087,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1121,7 +1121,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="21">
         <v>6</v>
@@ -1143,7 +1143,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="21">
         <v>40</v>
@@ -1156,10 +1156,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>38</v>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1264,9 +1264,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>50</v>
@@ -1329,15 +1329,15 @@
         <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>50</v>
@@ -1345,10 +1345,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>46</v>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>50</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>46</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBaseRate.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBaseRate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E743251-37E0-4F9A-B461-97F506BC2F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5D86DD-53EA-4C24-836E-E8D5076ABA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,7 +300,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BaseRateCode asc,EffectDate asc</t>
+    <t>BaseRateCode asc,EffectDate desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1266,7 +1266,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBaseRate.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBaseRate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5D86DD-53EA-4C24-836E-E8D5076ABA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AFC911-4678-4319-BB56-D259AC5783E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="168" yWindow="5628" windowWidth="22692" windowHeight="11508" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BaseRateCode asc,EffectDate desc</t>
+    <t>BaseRateCode asc,EffectDate asc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1266,7 +1266,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBaseRate.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBaseRate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AFC911-4678-4319-BB56-D259AC5783E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB8FB3C-B3D4-4985-9A1D-FDA0E6D18776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="168" yWindow="5628" windowWidth="22692" windowHeight="11508" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BaseRateCode asc,EffectDate asc</t>
+    <t>BaseRateCode asc,EffectDate desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1266,7 +1266,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBaseRate.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBaseRate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB8FB3C-B3D4-4985-9A1D-FDA0E6D18776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3982D91A-C0AC-4D15-8FC1-855444DA190B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,10 +501,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -516,36 +516,30 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,14 +549,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -920,30 +911,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.21875" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.6640625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.6640625" style="19" customWidth="1"/>
     <col min="8" max="8" width="21.44140625" style="8"/>
     <col min="9" max="9" width="42.6640625" style="8" customWidth="1"/>
     <col min="10" max="16384" width="21.44140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="4" t="s">
         <v>53</v>
       </c>
@@ -955,8 +946,8 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
@@ -967,11 +958,11 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="13" t="s">
         <v>44</v>
       </c>
@@ -979,61 +970,61 @@
         <v>27</v>
       </c>
       <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="5"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="5"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -1045,24 +1036,24 @@
       <c r="F8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="19">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>3</v>
       </c>
       <c r="G9" s="13" t="s">
@@ -1070,20 +1061,20 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="19">
         <f t="shared" ref="A10:A18" si="0">A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>2</v>
       </c>
       <c r="G10" s="13" t="s">
@@ -1091,80 +1082,80 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <v>8</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <v>6</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="19">
         <v>4</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
         <v>40</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <v>1</v>
       </c>
       <c r="G14" s="13" t="s">
@@ -1172,77 +1163,74 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="22"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="A16" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <v>6</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+      <c r="A17" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="22"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+      <c r="A18" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <v>6</v>
       </c>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="24"/>
+      <c r="G18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1264,7 +1252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBaseRate.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBaseRate.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3982D91A-C0AC-4D15-8FC1-855444DA190B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
+    <sheet name="JsonFields" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
   <si>
     <t>備註說明</t>
   </si>
@@ -235,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生效記號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effectFlagEq</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -272,6 +268,77 @@
   <si>
     <t>baseRateCodeEq2</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectFlagDescFirst1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrencyCode = ,AND BaseRateCode =</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:已放行(生效日期&gt;日曆日:未生效 else 已生效)
+1:已使用(不可刪除)
+2:未放行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+TWD:新台幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseRateCode asc,EffectDate desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JsonFields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jason格式紀錄欄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新程式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府補貼利率-貸款種類2</t>
+  </si>
+  <si>
+    <t>SubsidyRate1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>L5801</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubsidyRate2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubsidyRate (續編)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT  JSON_VALUE  ("JsonFields",  '$.SubsidyRate1') AS SubsidyRate1
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府補貼利率-貸款種類 (續編)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.政府補貼利率</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>共用代碼檔從 L6301 維護代碼
@@ -281,34 +348,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effectFlagDescFirst1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrencyCode = ,AND BaseRateCode =</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:已放行(生效日期&gt;日曆日:未生效 else 已生效)
-1:已使用(不可刪除)
-2:未放行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔
-TWD:新台幣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseRateCode asc,EffectDate desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>生效記號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubsidyEffectDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府補貼利率-貸款種類1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元年</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府補貼利率-生效日期</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -371,6 +435,13 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -482,7 +553,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -572,6 +643,33 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,23 +764,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -718,23 +799,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -910,11 +974,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1057,12 +1121,12 @@
         <v>3</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
-        <f t="shared" ref="A10:A18" si="0">A9+1</f>
+        <f t="shared" ref="A10:A19" si="0">A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -1078,7 +1142,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1134,7 +1198,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="19">
         <v>40</v>
@@ -1150,7 +1214,7 @@
         <v>54</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>38</v>
@@ -1159,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1167,16 +1231,19 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="20"/>
+      <c r="B15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="30">
+        <v>300</v>
+      </c>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
@@ -1184,16 +1251,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="19">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="G16" s="20"/>
     </row>
@@ -1203,13 +1267,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="E17" s="19">
+        <v>6</v>
       </c>
       <c r="G17" s="20"/>
     </row>
@@ -1219,18 +1286,34 @@
         <v>10</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C19" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E19" s="19">
         <v>6</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1249,7 +1332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -1278,10 +1361,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>50</v>
@@ -1317,15 +1400,15 @@
         <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>50</v>
@@ -1333,10 +1416,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>46</v>
@@ -1344,10 +1427,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>50</v>
@@ -1355,10 +1438,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>46</v>
@@ -1369,4 +1452,168 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" customWidth="1"/>
+    <col min="8" max="8" width="46.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" style="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="19">
+        <v>8</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="19">
+        <v>2</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="19">
+        <v>6</v>
+      </c>
+      <c r="G9" s="19">
+        <v>4</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="19">
+        <v>3</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="19">
+        <v>6</v>
+      </c>
+      <c r="G10" s="19">
+        <v>4</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="19">
+        <v>4</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="19">
+        <v>6</v>
+      </c>
+      <c r="G11" s="19">
+        <v>4</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBaseRate.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBaseRate.xlsx
@@ -9,12 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
-    <sheet name="JsonFields" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>備註說明</t>
   </si>
@@ -291,54 +290,6 @@
   <si>
     <t>BaseRateCode asc,EffectDate desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JsonFields</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jason格式紀錄欄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新程式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府補貼利率-貸款種類2</t>
-  </si>
-  <si>
-    <t>SubsidyRate1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>L5801</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubsidyRate2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubsidyRate (續編)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT  JSON_VALUE  ("JsonFields",  '$.SubsidyRate1') AS SubsidyRate1
-</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府補貼利率-貸款種類 (續編)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.政府補貼利率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>共用代碼檔從 L6301 維護代碼
@@ -350,29 +301,13 @@
   <si>
     <t>生效記號</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubsidyEffectDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府補貼利率-貸款種類1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>西元年</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府補貼利率-生效日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -436,13 +371,6 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -553,7 +481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -643,33 +571,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1126,7 +1027,7 @@
     </row>
     <row r="10" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
-        <f t="shared" ref="A10:A19" si="0">A9+1</f>
+        <f t="shared" ref="A10:A18" si="0">A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -1142,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1214,7 +1115,7 @@
         <v>54</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>38</v>
@@ -1231,19 +1132,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="30">
-        <v>300</v>
-      </c>
-      <c r="F15" s="30"/>
+      <c r="B15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
@@ -1251,13 +1149,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="E16" s="19">
+        <v>6</v>
       </c>
       <c r="G16" s="20"/>
     </row>
@@ -1267,16 +1168,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="19">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G17" s="20"/>
     </row>
@@ -1286,34 +1184,18 @@
         <v>10</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="E18" s="19">
+        <v>6</v>
       </c>
       <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="19">
-        <v>6</v>
-      </c>
-      <c r="G19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1452,168 +1334,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" customWidth="1"/>
-    <col min="8" max="8" width="46.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" style="33" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="19">
-        <v>8</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="19">
-        <v>2</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="19">
-        <v>6</v>
-      </c>
-      <c r="G9" s="19">
-        <v>4</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="19">
-        <v>3</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="19">
-        <v>6</v>
-      </c>
-      <c r="G10" s="19">
-        <v>4</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="19">
-        <v>4</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="19">
-        <v>6</v>
-      </c>
-      <c r="G11" s="19">
-        <v>4</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBaseRate.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBaseRate.xlsx
@@ -1,35 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BC8577-8FE3-44F2-8AE7-8A84C131B45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>備註說明</t>
   </si>
@@ -164,14 +156,6 @@
   </si>
   <si>
     <t>DECIMAL</t>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BaseRate</t>
@@ -302,11 +286,14 @@
     <t>生效記號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -590,9 +577,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -630,9 +617,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -667,7 +654,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,7 +689,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -875,11 +862,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -901,7 +888,7 @@
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>14</v>
@@ -929,7 +916,7 @@
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>27</v>
@@ -1022,7 +1009,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -1043,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1052,13 +1039,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="19">
         <v>8</v>
@@ -1071,13 +1058,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E12" s="19">
         <v>6</v>
@@ -1093,13 +1080,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" s="19">
         <v>40</v>
@@ -1112,10 +1099,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>38</v>
@@ -1124,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1139,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="G15" s="20"/>
     </row>
@@ -1174,7 +1161,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G17" s="20"/>
     </row>
@@ -1214,7 +1201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -1243,90 +1230,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
